--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A8410F-07D4-400F-BDB5-9C8DE01827BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5B3FF-F6CF-4E4B-A607-EEB5A14FF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DuelNum</t>
   </si>
@@ -56,15 +56,6 @@
     <t>SituationDescription</t>
   </si>
   <si>
-    <t>Role1</t>
-  </si>
-  <si>
-    <t>Role1Goal</t>
-  </si>
-  <si>
-    <t>Role2</t>
-  </si>
-  <si>
     <t>Шевчук Александр</t>
   </si>
   <si>
@@ -74,60 +65,9 @@
     <t>Давайте майнить биткоины</t>
   </si>
   <si>
-    <t>Финансовый директор</t>
-  </si>
-  <si>
     <t>В компанию пришел новый &lt;b&gt;Финансовый директор&lt;/b&gt; (друг одного из &lt;b&gt;собственников&lt;/b&gt;), провел аудит и увидел, что дорогое оборудование, купленное в интересах &lt;b&gt;ИТ-директора &lt;/b&gt;, более 70% времени используется менее чем на 5%, а время использования более чем на  50% составляет не более пары часов в месяц.  Дабы повысить эффективность использования ресурсов, снизить долговую нагрузку &lt;b&gt;Финдир&lt;/b&gt; предлагает часть оборудования продать, или сдать в аренду его &lt;b&gt;знакомому&lt;/b&gt;. Который готов купить оборудование или время на нем для майнинга.  &lt;b&gt;ИТ-директору&lt;/b&gt; это не нравится – покупка была обоснована, в соответствии с эксплуатационной документацией и технологическими процессам такая загрузка предусмотрена.</t>
   </si>
   <si>
-    <t>ИТ-директор</t>
-  </si>
-  <si>
-    <t>Генеральный директор</t>
-  </si>
-  <si>
-    <t>Собственник</t>
-  </si>
-  <si>
-    <t>Role2Goal</t>
-  </si>
-  <si>
-    <t>Role3</t>
-  </si>
-  <si>
-    <t>Role3Goal</t>
-  </si>
-  <si>
-    <t>Role4</t>
-  </si>
-  <si>
-    <t>Role4Goal</t>
-  </si>
-  <si>
-    <t>Role5</t>
-  </si>
-  <si>
-    <t>Role5Goal</t>
-  </si>
-  <si>
-    <t>Друг Финдира</t>
-  </si>
-  <si>
-    <t>Показать собственнику что он за эффективность, возврат инвестиций и только он считает тут каждую копейку.</t>
-  </si>
-  <si>
-    <t>что бы от него отстали, стоимость оборудования обоснована как по документам так и фактическими технологическими процессами, не снизить качество услуг</t>
-  </si>
-  <si>
-    <t>хочет долгосрочной устойчивости компании, показать что рабочие конфликты умеет решать, что ему можно доверять и «все под контролем»</t>
-  </si>
-  <si>
-    <t>долгосрочного устойчивого развития компании</t>
-  </si>
-  <si>
-    <t>получить дешево вычислительные ресурсы для своих целей</t>
-  </si>
-  <si>
     <t>Рашевский Ярослав</t>
   </si>
   <si>
@@ -146,19 +86,22 @@
     <t>&lt;b&gt;Друг акционера&lt;/b&gt; -  владелец небольшого стартапа по цифровым технологиям попросил &lt;b&gt;акционера&lt;/b&gt; помочь с внедрением разрабатываемого им инновационного продукта в крупной компании, которой владеет &lt;b&gt;акционер&lt;/b&gt;.   &lt;b&gt;Акционер&lt;/b&gt; поручил &lt;b&gt;ИТ-Директору&lt;/b&gt; компании разобраться и организовать внедрение. &lt;b&gt; ИТ-директор &lt;/b&gt; провел ряд встреч с другом акционера и начал понимать, что продукт очень сырой и не очень нужен компании. К тому же на рынке много аналогичных решений</t>
   </si>
   <si>
-    <t>получить референсное внедрение в крупной компании, заработать</t>
-  </si>
-  <si>
-    <t>Акционер</t>
-  </si>
-  <si>
-    <t>Сохранить отношения с другом, сохранить управляемость и прибыльность Компании</t>
-  </si>
-  <si>
-    <t>ИТ- Директор</t>
-  </si>
-  <si>
-    <t>Не отвлекать ресурсы компании на бесполезные проекты, Сохранить хорошие отношения с  Акционером</t>
+    <t xml:space="preserve">[
+{"Role":"Финансовый директор" , "Goals":"Показать собственнику что он за эффективность, возврат инвестиций и только он считает тут каждую копейку."},
+{"Role":"ИТ-директор" , "Goals":"что бы от него отстали, стоимость оборудования обоснована как по документам так и фактическими технологическими процессами, не снизить качество услуг"},
+{"Role":"Генеральный директор" , "Goals":"хочет долгосрочной устойчивости компании, показать что рабочие конфликты умеет решать, что ему можно доверять и «все под контролем»"},
+ {"Role":"Собственник" , "Goals":"долгосрочного устойчивого развития компании "},
+  {"Role":"Друг Финдира " , "Goals":"получить дешево вычислительные ресурсы для своих целей"}
+]  </t>
+  </si>
+  <si>
+    <t>SituationRoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"Друг Акционера" , "Goals":"получить референсное внедрение в крупной компании, заработать"},
+  {"Role":"Акционер " , "Goals":"Сохранить отношения с другом, сохранить управляемость и прибыльность Компании"},
+  {"Role":"ИТ- Директор " , "Goals":"Не отвлекать ресурсы компании на бесполезные проекты, Сохранить хорошие отношения с  Акционером"}
+]          </t>
   </si>
 </sst>
 </file>
@@ -235,9 +178,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,32 +518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="158.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,122 +554,53 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5B3FF-F6CF-4E4B-A607-EEB5A14FF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550DC0D-FC4B-42FB-8BB3-F96ABB4C2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DuelNum</t>
   </si>
@@ -102,6 +102,30 @@
   {"Role":"Акционер " , "Goals":"Сохранить отношения с другом, сохранить управляемость и прибыльность Компании"},
   {"Role":"ИТ- Директор " , "Goals":"Не отвлекать ресурсы компании на бесполезные проекты, Сохранить хорошие отношения с  Акционером"}
 ]          </t>
+  </si>
+  <si>
+    <t>Ганичкин Олег</t>
+  </si>
+  <si>
+    <t>Хуснуддинов Айрат</t>
+  </si>
+  <si>
+    <t>Педагоги-ретрограды</t>
+  </si>
+  <si>
+    <t>[
+ {"Role":"Генеральный Директор" , "Goals": "ввести ИС в ПЭ без задержек, стимулировать коллектив самих прийти к согласию, сохранить управляемость коллектива."},
+ {"Role":"ИТ-Директор " , "Goals": " показать свою эффективность ГД, ввести ИС в ПЭ в срок"},
+ {"Role":"ГлавБух" , "Goals": " оградить своих сотрудников от бумажной работы, переложить решение вопроса с ИС на ИТ-Директора и др. ответственных лиц."},
+ {"Role":"Авторитетный ретроград" , "Goals": " оставить для себя все как было, отстоять свой авторитет, опереться на дружбу с ГД и уникальность своей квалификации"}
+]</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Центр детского творчества, имеющий несколько филиалов в крупном городе, для оптимизации своей деятельности, проанализировал обратную связь о своей работе от родителей и сотрудников. Анализ выявил недостаток информации у родителей (посещаемость, успеваемость и т.п.) и сотрудников (обоснование расчетов з\п и премий, BI, статистика оплат и т.п.). Решено было внедрить ИС, автоматизирующей сбор этих данных. Для решения этой задачи &lt;b&gt;Генеральным директором&lt;/b&gt; нанят &lt;b&gt;ИТ-директор&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt; предложил архитектуру ИС с клиентскими приложениями (родительским и для сотрудников) и сценариями её использования, предусматривающими ежедневный ввод &lt;b&gt;педагогами&lt;/b&gt; данных о посещениях детей на каждом занятии. Архитектура и сценарии были одобрены &lt;b&gt;ГД&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt;  проинформировал филиалы о сценариях работы и запросил от них пользовательские требования. Требования направили меньшинство филиалов. Обобщив собранные требования, ИТ-директор приступил к разработке альфа-версии ИС. На запрос  &lt;b&gt;ИТ-директора&lt;/b&gt; включиться в опытную эксплуатацию (ОЭ) альфа-версии отозвался лишь один филиал. По результатам обработки замечаний ОЭ в альфа-версию были внесены изменения и финализированная версия была введена в опытно-промышленную эксплуатацию (ОПЭ). 
+Однако &lt;b&gt;педагоги «Ретрограды»&lt;/b&gt;, понимая свою ключевую важность для Центра и рассчитывая на дружеские отношения с &lt;b&gt;ГД&lt;/b&gt;, игнорировали требование вносить данные через приложение и по-старинке в конце месяца сдали данные в бухгалтерию на бумаге. Бухгалтеры обратились с жалобами на происходящее к &lt;b&gt;Главбуху&lt;/b&gt;. &lt;b&gt;Главбух&lt;/b&gt;  подтвердил отказ от бумажного документооборота и бухгалтеры потребовали внести всю информацию через мобильное приложение. Данные были лишь частично внесены. &lt;b&gt;Ретрограды &lt;/b&gt;, подчас в грубой форме постили в общий чат жалобы на интерфейс приложения и неадекватность и некомпетентность разработчиков ИС. &lt;b&gt;ГлавБух&lt;/b&gt; понимает, что без полноценного поступления данных в ИС Центр не оптимизирует свою работу и недополучит прибыль. &lt;b&gt;Ретрограды&lt;/b&gt; настроены решительно и не намерены брать на себя работу в ИС. &lt;b&gt;Бухгалтеры&lt;/b&gt; не намерены возвращаться к бумажному документообороту. &lt;b&gt;ИТ-директор&lt;/b&gt; понимает, что сопротивление Ретроградов срывает сроки вводи ИС в промышленную эксплуатацию (ПЭ) но влияния на них у него незначительно, срыв сроков лишает его бонусов. &lt;b&gt;ГД&lt;/b&gt; опасается откладывать ввод ИС в ПЭ т.к. родители давно требуют прозрачности в отношении данных о детях, недоволен неспособностью коллектива слаженно работать, готов решительно наказать виновных.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -184,6 +208,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +558,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="158.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,8 +631,35 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550DC0D-FC4B-42FB-8BB3-F96ABB4C2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FCD50-44D4-4B47-96A6-291F886E1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>DuelNum</t>
   </si>
@@ -56,9 +56,6 @@
     <t>SituationDescription</t>
   </si>
   <si>
-    <t>Шевчук Александр</t>
-  </si>
-  <si>
     <t>Кузьмина Екатерина</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>В компанию пришел новый &lt;b&gt;Финансовый директор&lt;/b&gt; (друг одного из &lt;b&gt;собственников&lt;/b&gt;), провел аудит и увидел, что дорогое оборудование, купленное в интересах &lt;b&gt;ИТ-директора &lt;/b&gt;, более 70% времени используется менее чем на 5%, а время использования более чем на  50% составляет не более пары часов в месяц.  Дабы повысить эффективность использования ресурсов, снизить долговую нагрузку &lt;b&gt;Финдир&lt;/b&gt; предлагает часть оборудования продать, или сдать в аренду его &lt;b&gt;знакомому&lt;/b&gt;. Который готов купить оборудование или время на нем для майнинга.  &lt;b&gt;ИТ-директору&lt;/b&gt; это не нравится – покупка была обоснована, в соответствии с эксплуатационной документацией и технологическими процессам такая загрузка предусмотрена.</t>
-  </si>
-  <si>
-    <t>Рашевский Ярослав</t>
   </si>
   <si>
     <t>Гришко Олег</t>
@@ -104,12 +98,6 @@
 ]          </t>
   </si>
   <si>
-    <t>Ганичкин Олег</t>
-  </si>
-  <si>
-    <t>Хуснуддинов Айрат</t>
-  </si>
-  <si>
     <t>Педагоги-ретрограды</t>
   </si>
   <si>
@@ -127,12 +115,79 @@
     <t>Центр детского творчества, имеющий несколько филиалов в крупном городе, для оптимизации своей деятельности, проанализировал обратную связь о своей работе от родителей и сотрудников. Анализ выявил недостаток информации у родителей (посещаемость, успеваемость и т.п.) и сотрудников (обоснование расчетов з\п и премий, BI, статистика оплат и т.п.). Решено было внедрить ИС, автоматизирующей сбор этих данных. Для решения этой задачи &lt;b&gt;Генеральным директором&lt;/b&gt; нанят &lt;b&gt;ИТ-директор&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt; предложил архитектуру ИС с клиентскими приложениями (родительским и для сотрудников) и сценариями её использования, предусматривающими ежедневный ввод &lt;b&gt;педагогами&lt;/b&gt; данных о посещениях детей на каждом занятии. Архитектура и сценарии были одобрены &lt;b&gt;ГД&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt;  проинформировал филиалы о сценариях работы и запросил от них пользовательские требования. Требования направили меньшинство филиалов. Обобщив собранные требования, ИТ-директор приступил к разработке альфа-версии ИС. На запрос  &lt;b&gt;ИТ-директора&lt;/b&gt; включиться в опытную эксплуатацию (ОЭ) альфа-версии отозвался лишь один филиал. По результатам обработки замечаний ОЭ в альфа-версию были внесены изменения и финализированная версия была введена в опытно-промышленную эксплуатацию (ОПЭ). 
 Однако &lt;b&gt;педагоги «Ретрограды»&lt;/b&gt;, понимая свою ключевую важность для Центра и рассчитывая на дружеские отношения с &lt;b&gt;ГД&lt;/b&gt;, игнорировали требование вносить данные через приложение и по-старинке в конце месяца сдали данные в бухгалтерию на бумаге. Бухгалтеры обратились с жалобами на происходящее к &lt;b&gt;Главбуху&lt;/b&gt;. &lt;b&gt;Главбух&lt;/b&gt;  подтвердил отказ от бумажного документооборота и бухгалтеры потребовали внести всю информацию через мобильное приложение. Данные были лишь частично внесены. &lt;b&gt;Ретрограды &lt;/b&gt;, подчас в грубой форме постили в общий чат жалобы на интерфейс приложения и неадекватность и некомпетентность разработчиков ИС. &lt;b&gt;ГлавБух&lt;/b&gt; понимает, что без полноценного поступления данных в ИС Центр не оптимизирует свою работу и недополучит прибыль. &lt;b&gt;Ретрограды&lt;/b&gt; настроены решительно и не намерены брать на себя работу в ИС. &lt;b&gt;Бухгалтеры&lt;/b&gt; не намерены возвращаться к бумажному документообороту. &lt;b&gt;ИТ-директор&lt;/b&gt; понимает, что сопротивление Ретроградов срывает сроки вводи ИС в промышленную эксплуатацию (ПЭ) но влияния на них у него незначительно, срыв сроков лишает его бонусов. &lt;b&gt;ГД&lt;/b&gt; опасается откладывать ввод ИС в ПЭ т.к. родители давно требуют прозрачности в отношении данных о детях, недоволен неспособностью коллектива слаженно работать, готов решительно наказать виновных.</t>
   </si>
+  <si>
+    <t>RefereeQty</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Классика</t>
+  </si>
+  <si>
+    <t>Хохлов Николай</t>
+  </si>
+  <si>
+    <t>Шебунин Андоей</t>
+  </si>
+  <si>
+    <t>Мельник Максим</t>
+  </si>
+  <si>
+    <t>DuelMinutesLength</t>
+  </si>
+  <si>
+    <t>Елисеева Юлия</t>
+  </si>
+  <si>
+    <t>Гамалага Александра</t>
+  </si>
+  <si>
+    <t>Чистюхин Александр</t>
+  </si>
+  <si>
+    <t>Журавлева Галина</t>
+  </si>
+  <si>
+    <t>Экспресс</t>
+  </si>
+  <si>
+    <t>Хуснудинов Айрат</t>
+  </si>
+  <si>
+    <t>Борьба за парковку</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Предприниматель&lt;/b&gt; приезжает на машине домой и хочет припарковаться, но прямо у дома мест нет, и он решает встать в этом же дворе у соседнего дома, в котором находятся какие-то учреждения. Он подъезжает к соседнему зданию и начинает задом заезжать в свободную нишу. На улице лето, водительское окно полностью открыто. Тут появляется &lt;b&gt;охранник&lt;/b&gt; (обычный парень, одетый в чёрное) и довольно резко спрашивает:
+&lt;b&gt;- Разуй глаза! Где ты парковку здесь увидел? &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"Предприниматель" , "Goals":""},
+  {"Role":"Охранник " , "Goals":""}
+]          </t>
+  </si>
+  <si>
+    <t>За чей счет ошибка?</t>
+  </si>
+  <si>
+    <t>В крупной розничной компании из-за сбоя в ИТ системе (обеспечивающей рассылку адресных SMS-сообщений) произошел перерасход средств на оплату подрядчику услуг. Услуга заключается в проверке активности номера абонента. Сбой привел к тому, что одни и те же номера телефонов проверялись по нескольку раз. &lt;b&gt;Руководитель направления&lt;/b&gt; департамента маркетинга (ДМ), курирующий эти рассылки, недоволен ситуацией и хочет переложить перерасход на департамент ИТ, ответственный за ИТ-инструменты. Так же &lt;b&gt;Руководитель направления&lt;/b&gt; считает целесообразным  наказать ИТ-специалистов департамента ИТ(ДИТ) из причастных к перерасходу или по крайней мере  обязать тщательно выявлять риски подобных событий и предупреждать о них &lt;b&gt;ДМ&lt;/b&gt;. Не договорившись с &lt;b&gt;Директором ДИТ&lt;/b&gt;, требует от &lt;b&gt;Директора ДМ&lt;/b&gt;, использую административный ресурс, решить этот вопрос в пользу компенсации ДМ перерасхода или выйти с этим вопросом на &lt;b&gt;ГД&lt;/b&gt;. &lt;b&gt;Директор ДИТ&lt;/b&gt; не готов принимать на свой департамент какую-либо финансовую ответственность т.к. без ошибок ни одно сложное новшество не обходится, а ДМ сам виноват, что не предусмотрел реагирования на риск отказа ИТ-составляющей маркетинговой деятельности. &lt;b&gt;Директор ДМ&lt;/b&gt; ценит &lt;b&gt;Руководителя направления&lt;/b&gt;, опасается снижения его мотивации к работе и, поэтому, готов его поддержать, но портить отношения с &lt;b&gt;Руководителем ДИТ&lt;/b&gt; не хочет. &lt;b&gt;Генеральный директор&lt;/b&gt; индиферентен к играм в перекладывание фин. Ответственности между департаментами т.к. денег в компании от этого больше не становится и недоволен, что подразделения не могут наладить должное взаимодействие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"ГД" , "Goals":"збежать погружения в междепартаментские дрязги, добиться слаженного взаимодействия между подразделениями, укрепить свой авторитет"},
+  {"Role":"Директор ДМ", "Goals":"по возможности переложить на руководителя направления ДМ улаживание конфликта, ограничившись советами и пассивной поддержкой «стоя за спиной», не допустить демотивации руководителя направления ДМ, наладить взаимодействие с ДИТ, сохранить отношения с ДИТ"},
+  {"Role":"Директор ДИТ", "Goals":" не допустить наложения на ДИТ какой-либо фин.ответственности, регламентировать взаимодействие с ДИТ таким образом, чтобы фин.ответственность ДИТ за подобные прецеденты была невозможна, стимулировать ДМ учитывать риски в своих бюджетах, сохранить отношения с ДМ"}, 
+  {"Role":"Руководитель направления ДМ " , "Goals":" Избежать проблем с поиском доп бюджета, добиться компенсации снижения своего KPI, переложить ответственность на ДИТ за подобные прецеденты, сохранить отношения с Директором ДМ."}
+]        </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +227,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,6 +274,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,11 +621,12 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="158.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="10" max="10" width="158.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,14 +642,23 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,69 +666,157 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
+    <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FCD50-44D4-4B47-96A6-291F886E1FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842EA5D5-96A9-4875-9E87-CABE99D92112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842EA5D5-96A9-4875-9E87-CABE99D92112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E13CC5-37D7-4927-A56C-024EC6C0ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
+    <workbookView xWindow="-28920" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Хохлов Николай</t>
   </si>
   <si>
-    <t>Шебунин Андоей</t>
-  </si>
-  <si>
     <t>Мельник Максим</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   {"Role":"Директор ДИТ", "Goals":" не допустить наложения на ДИТ какой-либо фин.ответственности, регламентировать взаимодействие с ДИТ таким образом, чтобы фин.ответственность ДИТ за подобные прецеденты была невозможна, стимулировать ДМ учитывать риски в своих бюджетах, сохранить отношения с ДМ"}, 
   {"Role":"Руководитель направления ДМ " , "Goals":" Избежать проблем с поиском доп бюджета, добиться компенсации снижения своего KPI, переложить ответственность на ДИТ за подобные прецеденты, сохранить отношения с Директором ДМ."}
 ]        </t>
+  </si>
+  <si>
+    <t>Шебунин Андрей</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -727,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>19</v>
@@ -759,16 +759,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="7">
         <v>81</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -780,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -794,28 +794,28 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E13CC5-37D7-4927-A56C-024EC6C0ADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47782343-69CB-4E54-BD07-E395F404C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -162,11 +162,6 @@
 &lt;b&gt;- Разуй глаза! Где ты парковку здесь увидел? &lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">[ {"Role":"Предприниматель" , "Goals":""},
-  {"Role":"Охранник " , "Goals":""}
-]          </t>
-  </si>
-  <si>
     <t>За чей счет ошибка?</t>
   </si>
   <si>
@@ -181,6 +176,11 @@
   </si>
   <si>
     <t>Шебунин Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"Охранник" , "Phrase":"Разуй глаза! Где ты парковку здесь увидел? "},
+  {"Role":"Предприниматель "}
+]          </t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
@@ -768,7 +768,7 @@
         <v>81</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -780,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47782343-69CB-4E54-BD07-E395F404C59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BE664-264A-448B-999A-2BC0598E5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>DuelNum</t>
   </si>
@@ -98,24 +98,6 @@
 ]          </t>
   </si>
   <si>
-    <t>Педагоги-ретрограды</t>
-  </si>
-  <si>
-    <t>[
- {"Role":"Генеральный Директор" , "Goals": "ввести ИС в ПЭ без задержек, стимулировать коллектив самих прийти к согласию, сохранить управляемость коллектива."},
- {"Role":"ИТ-Директор " , "Goals": " показать свою эффективность ГД, ввести ИС в ПЭ в срок"},
- {"Role":"ГлавБух" , "Goals": " оградить своих сотрудников от бумажной работы, переложить решение вопроса с ИС на ИТ-Директора и др. ответственных лиц."},
- {"Role":"Авторитетный ретроград" , "Goals": " оставить для себя все как было, отстоять свой авторитет, опереться на дружбу с ГД и уникальность своей квалификации"}
-]</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Центр детского творчества, имеющий несколько филиалов в крупном городе, для оптимизации своей деятельности, проанализировал обратную связь о своей работе от родителей и сотрудников. Анализ выявил недостаток информации у родителей (посещаемость, успеваемость и т.п.) и сотрудников (обоснование расчетов з\п и премий, BI, статистика оплат и т.п.). Решено было внедрить ИС, автоматизирующей сбор этих данных. Для решения этой задачи &lt;b&gt;Генеральным директором&lt;/b&gt; нанят &lt;b&gt;ИТ-директор&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt; предложил архитектуру ИС с клиентскими приложениями (родительским и для сотрудников) и сценариями её использования, предусматривающими ежедневный ввод &lt;b&gt;педагогами&lt;/b&gt; данных о посещениях детей на каждом занятии. Архитектура и сценарии были одобрены &lt;b&gt;ГД&lt;/b&gt;. &lt;b&gt;ИТ-директор&lt;/b&gt;  проинформировал филиалы о сценариях работы и запросил от них пользовательские требования. Требования направили меньшинство филиалов. Обобщив собранные требования, ИТ-директор приступил к разработке альфа-версии ИС. На запрос  &lt;b&gt;ИТ-директора&lt;/b&gt; включиться в опытную эксплуатацию (ОЭ) альфа-версии отозвался лишь один филиал. По результатам обработки замечаний ОЭ в альфа-версию были внесены изменения и финализированная версия была введена в опытно-промышленную эксплуатацию (ОПЭ). 
-Однако &lt;b&gt;педагоги «Ретрограды»&lt;/b&gt;, понимая свою ключевую важность для Центра и рассчитывая на дружеские отношения с &lt;b&gt;ГД&lt;/b&gt;, игнорировали требование вносить данные через приложение и по-старинке в конце месяца сдали данные в бухгалтерию на бумаге. Бухгалтеры обратились с жалобами на происходящее к &lt;b&gt;Главбуху&lt;/b&gt;. &lt;b&gt;Главбух&lt;/b&gt;  подтвердил отказ от бумажного документооборота и бухгалтеры потребовали внести всю информацию через мобильное приложение. Данные были лишь частично внесены. &lt;b&gt;Ретрограды &lt;/b&gt;, подчас в грубой форме постили в общий чат жалобы на интерфейс приложения и неадекватность и некомпетентность разработчиков ИС. &lt;b&gt;ГлавБух&lt;/b&gt; понимает, что без полноценного поступления данных в ИС Центр не оптимизирует свою работу и недополучит прибыль. &lt;b&gt;Ретрограды&lt;/b&gt; настроены решительно и не намерены брать на себя работу в ИС. &lt;b&gt;Бухгалтеры&lt;/b&gt; не намерены возвращаться к бумажному документообороту. &lt;b&gt;ИТ-директор&lt;/b&gt; понимает, что сопротивление Ретроградов срывает сроки вводи ИС в промышленную эксплуатацию (ПЭ) но влияния на них у него незначительно, срыв сроков лишает его бонусов. &lt;b&gt;ГД&lt;/b&gt; опасается откладывать ввод ИС в ПЭ т.к. родители давно требуют прозрачности в отношении данных о детях, недоволен неспособностью коллектива слаженно работать, готов решительно наказать виновных.</t>
-  </si>
-  <si>
     <t>RefereeQty</t>
   </si>
   <si>
@@ -181,6 +163,29 @@
     <t xml:space="preserve">[ {"Role":"Охранник" , "Phrase":"Разуй глаза! Где ты парковку здесь увидел? "},
   {"Role":"Предприниматель "}
 ]          </t>
+  </si>
+  <si>
+    <t>А зарплату получать тоже вы за него будете?</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+ {"Role":"Менеджер по персоналу" , "Goals": "Срочно закрыть вакансию, от этого зависит и работа компании, и размер его премии, однако если кандидат не подойдет, он тоже рискует потерять часть премии, а этого ему совсем не хочется"},
+ {"Role":"Мама Кандидата" , "Goals": "Хочет презентовать своего сына с лучшей стороны, чтобы он был принят на работу, деньги в семейный бюджет очень нужны, всегда готова подстраховать сына, поэтому она — его главное конкурентное преимущество"},
+ {"Role":"Кандидат" , "Goals": "Хочет получить эту работу, не знает как умерить пыл своей активной Мамы, чтобы ее не обидеть"},
+ {"Role":"Директор" , "Goals": "срочно закрыть вакансию, и не абы кем, а подходящим под требования кандидатом"}
+]
+</t>
+  </si>
+  <si>
+    <t>В компании неожиданно освободилась вакансия курьера. Зарплата не очень большая, рабочий день не полный, но как подработка для студентов идеально. Курьер требуется срочно, он по штату один, заменить некем. Вакансию разместили в интернете. В один из дней приходит отклик, &lt;b&gt;парнишка 19 лет&lt;/b&gt;, резюме составлено очень грамотно, есть опыт работы, учится на вечернем, есть отсрочка от армии, для компании идеально. &lt;b&gt;Менеджер по персоналу&lt;/b&gt; звонит, отвечает женщина, представляется &lt;b&gt;Мамой Кандидата&lt;/b&gt; и говорит, что сын забыл телефон дома, но очень ждал этого звонка и готов завтра приехать на собеседование. &lt;b&gt;Менеджер&lt;/b&gt; оставляет адрес и назначает время.
+На следующий день за 15 минут до назначенного времени звонок. Звонит &lt;b&gt;Мама&lt;/b&gt;: "Мы тут идем к вам на собеседование и немного заблудились, сориентируйте нас!"&lt;b&gt;. Менеджер по персоналу&lt;/b&gt; выходит встречать заблудившихся ко входу в офис и видит внушительных размеров &lt;b&gt;даму&lt;/b&gt;, а за ней плетется &lt;b&gt;Кандидат&lt;/b&gt;. Несмотря на приглашение &lt;b&gt;Маме&lt;/b&gt; присесть на диван, а &lt;b&gt;Кандидату&lt;/b&gt; пройти в переговорку, &lt;b&gt;Мама&lt;/b&gt; также проходит в кабинет и в течение первых 5 минут собеседования отвечает на все вопросы, адресованные ее &lt;b&gt;сыну&lt;/b&gt;. Она заверяет, что лучше ее сына кандидата не найти, расписывает его достоинства, самый главный аргумент - если он заболеет или будет на сессии, работать за него будет она, так как она домохозяйка и у нее полно свободного времени, они прекрасно так работали на прошлом месте, пока ее &lt;b&gt;сына&lt;/b&gt; не сократили.
+&lt;b&gt;Менеджер по персоналу&lt;/b&gt;, ошеломленный напором &lt;b&gt;Мамы&lt;/b&gt;, берет паузу и просит их выйти из кабинета. Он в растерянности, вакансию закрыть надо срочно, но нужен ли такой работник? Не уверен, что такого кандидата одобрит &lt;b&gt;Директор&lt;/b&gt;.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +617,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,13 +648,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -666,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
@@ -675,13 +680,13 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -695,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -707,13 +712,13 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -722,68 +727,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
+      <c r="I5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -794,28 +799,28 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BE664-264A-448B-999A-2BC0598E5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83452C0D-E76A-4CA9-98E0-58460252BA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -59,34 +59,16 @@
     <t>Кузьмина Екатерина</t>
   </si>
   <si>
-    <t>Давайте майнить биткоины</t>
-  </si>
-  <si>
-    <t>В компанию пришел новый &lt;b&gt;Финансовый директор&lt;/b&gt; (друг одного из &lt;b&gt;собственников&lt;/b&gt;), провел аудит и увидел, что дорогое оборудование, купленное в интересах &lt;b&gt;ИТ-директора &lt;/b&gt;, более 70% времени используется менее чем на 5%, а время использования более чем на  50% составляет не более пары часов в месяц.  Дабы повысить эффективность использования ресурсов, снизить долговую нагрузку &lt;b&gt;Финдир&lt;/b&gt; предлагает часть оборудования продать, или сдать в аренду его &lt;b&gt;знакомому&lt;/b&gt;. Который готов купить оборудование или время на нем для майнинга.  &lt;b&gt;ИТ-директору&lt;/b&gt; это не нравится – покупка была обоснована, в соответствии с эксплуатационной документацией и технологическими процессам такая загрузка предусмотрена.</t>
-  </si>
-  <si>
     <t>Гришко Олег</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>Друг Акционера</t>
   </si>
   <si>
     <t>&lt;b&gt;Друг акционера&lt;/b&gt; -  владелец небольшого стартапа по цифровым технологиям попросил &lt;b&gt;акционера&lt;/b&gt; помочь с внедрением разрабатываемого им инновационного продукта в крупной компании, которой владеет &lt;b&gt;акционер&lt;/b&gt;.   &lt;b&gt;Акционер&lt;/b&gt; поручил &lt;b&gt;ИТ-Директору&lt;/b&gt; компании разобраться и организовать внедрение. &lt;b&gt; ИТ-директор &lt;/b&gt; провел ряд встреч с другом акционера и начал понимать, что продукт очень сырой и не очень нужен компании. К тому же на рынке много аналогичных решений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
-{"Role":"Финансовый директор" , "Goals":"Показать собственнику что он за эффективность, возврат инвестиций и только он считает тут каждую копейку."},
-{"Role":"ИТ-директор" , "Goals":"что бы от него отстали, стоимость оборудования обоснована как по документам так и фактическими технологическими процессами, не снизить качество услуг"},
-{"Role":"Генеральный директор" , "Goals":"хочет долгосрочной устойчивости компании, показать что рабочие конфликты умеет решать, что ему можно доверять и «все под контролем»"},
- {"Role":"Собственник" , "Goals":"долгосрочного устойчивого развития компании "},
-  {"Role":"Друг Финдира " , "Goals":"получить дешево вычислительные ресурсы для своих целей"}
-]  </t>
   </si>
   <si>
     <t>SituationRoles</t>
@@ -186,6 +168,24 @@
     <t>В компании неожиданно освободилась вакансия курьера. Зарплата не очень большая, рабочий день не полный, но как подработка для студентов идеально. Курьер требуется срочно, он по штату один, заменить некем. Вакансию разместили в интернете. В один из дней приходит отклик, &lt;b&gt;парнишка 19 лет&lt;/b&gt;, резюме составлено очень грамотно, есть опыт работы, учится на вечернем, есть отсрочка от армии, для компании идеально. &lt;b&gt;Менеджер по персоналу&lt;/b&gt; звонит, отвечает женщина, представляется &lt;b&gt;Мамой Кандидата&lt;/b&gt; и говорит, что сын забыл телефон дома, но очень ждал этого звонка и готов завтра приехать на собеседование. &lt;b&gt;Менеджер&lt;/b&gt; оставляет адрес и назначает время.
 На следующий день за 15 минут до назначенного времени звонок. Звонит &lt;b&gt;Мама&lt;/b&gt;: "Мы тут идем к вам на собеседование и немного заблудились, сориентируйте нас!"&lt;b&gt;. Менеджер по персоналу&lt;/b&gt; выходит встречать заблудившихся ко входу в офис и видит внушительных размеров &lt;b&gt;даму&lt;/b&gt;, а за ней плетется &lt;b&gt;Кандидат&lt;/b&gt;. Несмотря на приглашение &lt;b&gt;Маме&lt;/b&gt; присесть на диван, а &lt;b&gt;Кандидату&lt;/b&gt; пройти в переговорку, &lt;b&gt;Мама&lt;/b&gt; также проходит в кабинет и в течение первых 5 минут собеседования отвечает на все вопросы, адресованные ее &lt;b&gt;сыну&lt;/b&gt;. Она заверяет, что лучше ее сына кандидата не найти, расписывает его достоинства, самый главный аргумент - если он заболеет или будет на сессии, работать за него будет она, так как она домохозяйка и у нее полно свободного времени, они прекрасно так работали на прошлом месте, пока ее &lt;b&gt;сына&lt;/b&gt; не сократили.
 &lt;b&gt;Менеджер по персоналу&lt;/b&gt;, ошеломленный напором &lt;b&gt;Мамы&lt;/b&gt;, берет паузу и просит их выйти из кабинета. Он в растерянности, вакансию закрыть надо срочно, но нужен ли такой работник? Не уверен, что такого кандидата одобрит &lt;b&gt;Директор&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Расширение штата ИТ</t>
+  </si>
+  <si>
+    <t>Головной офис международной компании Омега управляет дочерней компанией Альфа и предоставляет ей общекорпоративные сервисы. Состоящее из 2-х человек ИТ-подразделение компани Альфа и отвечает за решение локальных ИТ-задач и 1-ю линию поддержки для её сотрудников. Нагрузка на ИТ-подразделение высокая и его &lt;strong&gt;Руководителю&lt;/strong&gt; зачастую приходится самому выполнять функции&lt;strong&gt; ИТ-специалиста&lt;/strong&gt;, а не основной работой. Требует от&lt;strong&gt; Руководителя HR&lt;/strong&gt; и &lt;strong&gt;Директора компании &lt;/strong&gt;ввести в ИТ-подразделение еще одну штатную единицу ИТ-специалиста. &lt;strong&gt;Руководитель HR&lt;/strong&gt; возражает против введения еще одной единицы т.к. нормальная практика при неравномерной загрузке перераспределять ее в том числе и на руководителей подразделений &amp;ndash; так работают все подразделения компании. Кроме того, Головная компания требует уже в следующем квартале снизить ФОТ на 10%. &lt;strong&gt;Директор компании &lt;/strong&gt;понимает демотивирующее влияние низкоквалифицированной загрузки на Руководителя ИТ, хочет его сохранить. Понимает, что для Головной компании не является основанием для ослабления ограничения ФОТ регулярность низкоквалифицированной загрузки. &lt;strong&gt;ИТ-специалист&lt;/strong&gt; получил предложение о работе из другой компании и подал заявление об увольнении &lt;strong&gt;Руководителю ИТ. Директор по представительствам компании Омега &lt;/strong&gt;считает, что желание раздуть штат есть всегда и &amp;laquo;внизу&amp;raquo; склонны раздувать масштабы своих трудностей. Не готов идти на уступки без очень веских оснований, заинтересован в эффективной работе дочерних компаний</t>
+  </si>
+  <si>
+    <t>[
+{"Role":"Директор по представительствам Омега" , "Goals":"Настоять на сохранении ограничения, сохранить эффективность компании Альфа"},
+{"Role":"Директор компании Альфа" , "Goals":"хорошо зарекомендовать себя перед компанией Омега, сохранить Руководителя ИТ, работоспособность ИТ-подразделения, чем поддержать эффективность компании Альфа"},
+{"Role":"Руководитель HR Альфа" , "Goals":"снизить вилку з\\п для позиции ИТ-специалиста, новую единицу не вводить, стимулировать Руководителя ИТ и к нематериальной мотивации своего персонала."},
+{"Role":"Руководитель ИТ Альфа" , "Goals":"добиться расширения штата и повышения ФОТ ИТ-подразделения, задержать ИТ-специалиста на текущей работе подольше."},
+{"Role":"ИТ-специалист Альфа " , "Goals":"хорошо расстаться с Руководителем ИТ, коллективом и с работодателем, поскорее перейти на новое место, но готов остаться если поступит интересное предложение"}
+]</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" customWidth="1"/>
     <col min="10" max="10" width="158.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,22 +648,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -671,28 +671,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
+      <c r="I2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -700,31 +700,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,31 +732,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -764,31 +764,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -796,31 +796,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83452C0D-E76A-4CA9-98E0-58460252BA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7375E0-9C34-42BD-93CF-C6C351C420EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -181,7 +181,7 @@
   <si>
     <t>[
 {"Role":"Директор по представительствам Омега" , "Goals":"Настоять на сохранении ограничения, сохранить эффективность компании Альфа"},
-{"Role":"Директор компании Альфа" , "Goals":"хорошо зарекомендовать себя перед компанией Омега, сохранить Руководителя ИТ, работоспособность ИТ-подразделения, чем поддержать эффективность компании Альфа"},
+{"Role":"Директор компании Альфа" , "Goals":"Хорошо зарекомендовать себя перед компанией Омега.&lt;br/&gt; Сохранить Руководителя ИТ, а также  работоспособность ИТ-подразделения, чем поддержать эффективность компании Альфа"},
 {"Role":"Руководитель HR Альфа" , "Goals":"снизить вилку з\\п для позиции ИТ-специалиста, новую единицу не вводить, стимулировать Руководителя ИТ и к нематериальной мотивации своего персонала."},
 {"Role":"Руководитель ИТ Альфа" , "Goals":"добиться расширения штата и повышения ФОТ ИТ-подразделения, задержать ИТ-специалиста на текущей работе подольше."},
 {"Role":"ИТ-специалист Альфа " , "Goals":"хорошо расстаться с Руководителем ИТ, коллективом и с работодателем, поскорее перейти на новое место, но готов остаться если поступит интересное предложение"}
@@ -617,7 +617,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/Онлайн я-ИТ-ы №16.xlsx
+++ b/Онлайн я-ИТ-ы №16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZaborov\YandexDisk\Работы, тексты, презентации\Я и ТЫ\Поединки\Часы\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7375E0-9C34-42BD-93CF-C6C351C420EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA38E8C4-67C8-43B2-AFA9-EA48AA753B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79C00F4D-975F-4909-8A96-898841EE65BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>DuelNum</t>
   </si>
@@ -62,24 +62,9 @@
     <t>Гришко Олег</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Друг Акционера</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Друг акционера&lt;/b&gt; -  владелец небольшого стартапа по цифровым технологиям попросил &lt;b&gt;акционера&lt;/b&gt; помочь с внедрением разрабатываемого им инновационного продукта в крупной компании, которой владеет &lt;b&gt;акционер&lt;/b&gt;.   &lt;b&gt;Акционер&lt;/b&gt; поручил &lt;b&gt;ИТ-Директору&lt;/b&gt; компании разобраться и организовать внедрение. &lt;b&gt; ИТ-директор &lt;/b&gt; провел ряд встреч с другом акционера и начал понимать, что продукт очень сырой и не очень нужен компании. К тому же на рынке много аналогичных решений</t>
-  </si>
-  <si>
     <t>SituationRoles</t>
   </si>
   <si>
-    <t xml:space="preserve">[ {"Role":"Друг Акционера" , "Goals":"получить референсное внедрение в крупной компании, заработать"},
-  {"Role":"Акционер " , "Goals":"Сохранить отношения с другом, сохранить управляемость и прибыльность Компании"},
-  {"Role":"ИТ- Директор " , "Goals":"Не отвлекать ресурсы компании на бесполезные проекты, Сохранить хорошие отношения с  Акционером"}
-]          </t>
-  </si>
-  <si>
     <t>RefereeQty</t>
   </si>
   <si>
@@ -116,35 +101,13 @@
     <t>Хуснудинов Айрат</t>
   </si>
   <si>
-    <t>Борьба за парковку</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Предприниматель&lt;/b&gt; приезжает на машине домой и хочет припарковаться, но прямо у дома мест нет, и он решает встать в этом же дворе у соседнего дома, в котором находятся какие-то учреждения. Он подъезжает к соседнему зданию и начинает задом заезжать в свободную нишу. На улице лето, водительское окно полностью открыто. Тут появляется &lt;b&gt;охранник&lt;/b&gt; (обычный парень, одетый в чёрное) и довольно резко спрашивает:
-&lt;b&gt;- Разуй глаза! Где ты парковку здесь увидел? &lt;/b&gt;</t>
-  </si>
-  <si>
     <t>За чей счет ошибка?</t>
   </si>
   <si>
     <t>В крупной розничной компании из-за сбоя в ИТ системе (обеспечивающей рассылку адресных SMS-сообщений) произошел перерасход средств на оплату подрядчику услуг. Услуга заключается в проверке активности номера абонента. Сбой привел к тому, что одни и те же номера телефонов проверялись по нескольку раз. &lt;b&gt;Руководитель направления&lt;/b&gt; департамента маркетинга (ДМ), курирующий эти рассылки, недоволен ситуацией и хочет переложить перерасход на департамент ИТ, ответственный за ИТ-инструменты. Так же &lt;b&gt;Руководитель направления&lt;/b&gt; считает целесообразным  наказать ИТ-специалистов департамента ИТ(ДИТ) из причастных к перерасходу или по крайней мере  обязать тщательно выявлять риски подобных событий и предупреждать о них &lt;b&gt;ДМ&lt;/b&gt;. Не договорившись с &lt;b&gt;Директором ДИТ&lt;/b&gt;, требует от &lt;b&gt;Директора ДМ&lt;/b&gt;, использую административный ресурс, решить этот вопрос в пользу компенсации ДМ перерасхода или выйти с этим вопросом на &lt;b&gt;ГД&lt;/b&gt;. &lt;b&gt;Директор ДИТ&lt;/b&gt; не готов принимать на свой департамент какую-либо финансовую ответственность т.к. без ошибок ни одно сложное новшество не обходится, а ДМ сам виноват, что не предусмотрел реагирования на риск отказа ИТ-составляющей маркетинговой деятельности. &lt;b&gt;Директор ДМ&lt;/b&gt; ценит &lt;b&gt;Руководителя направления&lt;/b&gt;, опасается снижения его мотивации к работе и, поэтому, готов его поддержать, но портить отношения с &lt;b&gt;Руководителем ДИТ&lt;/b&gt; не хочет. &lt;b&gt;Генеральный директор&lt;/b&gt; индиферентен к играм в перекладывание фин. Ответственности между департаментами т.к. денег в компании от этого больше не становится и недоволен, что подразделения не могут наладить должное взаимодействие.</t>
   </si>
   <si>
-    <t xml:space="preserve">[ {"Role":"ГД" , "Goals":"збежать погружения в междепартаментские дрязги, добиться слаженного взаимодействия между подразделениями, укрепить свой авторитет"},
-  {"Role":"Директор ДМ", "Goals":"по возможности переложить на руководителя направления ДМ улаживание конфликта, ограничившись советами и пассивной поддержкой «стоя за спиной», не допустить демотивации руководителя направления ДМ, наладить взаимодействие с ДИТ, сохранить отношения с ДИТ"},
-  {"Role":"Директор ДИТ", "Goals":" не допустить наложения на ДИТ какой-либо фин.ответственности, регламентировать взаимодействие с ДИТ таким образом, чтобы фин.ответственность ДИТ за подобные прецеденты была невозможна, стимулировать ДМ учитывать риски в своих бюджетах, сохранить отношения с ДМ"}, 
-  {"Role":"Руководитель направления ДМ " , "Goals":" Избежать проблем с поиском доп бюджета, добиться компенсации снижения своего KPI, переложить ответственность на ДИТ за подобные прецеденты, сохранить отношения с Директором ДМ."}
-]        </t>
-  </si>
-  <si>
     <t>Шебунин Андрей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ {"Role":"Охранник" , "Phrase":"Разуй глаза! Где ты парковку здесь увидел? "},
-  {"Role":"Предприниматель "}
-]          </t>
   </si>
   <si>
     <t>А зарплату получать тоже вы за него будете?</t>
@@ -186,6 +149,40 @@
 {"Role":"Руководитель ИТ Альфа" , "Goals":"добиться расширения штата и повышения ФОТ ИТ-подразделения, задержать ИТ-специалиста на текущей работе подольше."},
 {"Role":"ИТ-специалист Альфа " , "Goals":"хорошо расстаться с Руководителем ИТ, коллективом и с работодателем, поскорее перейти на новое место, но готов остаться если поступит интересное предложение"}
 ]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Реорганизация холдинга</t>
+  </si>
+  <si>
+    <t>При реорганизации холдинга меняется команда топ-менеджеров. Новый исполнительный директор с согласия &lt;strong&gt;Собственника&lt;/strong&gt; принимает на работу &lt;strong&gt;Нового ИТ директора&lt;/strong&gt;. Чтобы предотвратить возможный конфликт и оставить &lt;strong&gt;Бывшего ИТ директора &lt;/strong&gt;в компании, &lt;strong&gt;Собственник &lt;/strong&gt;определяет ему область ответственности, новый круг задач и мотивацию. Однако это совершенно не устраивает &lt;strong&gt;Нового ИТ директора&lt;/strong&gt;, который считает, что &lt;strong&gt;Собственник &lt;/strong&gt;не имел права, не посоветовавшись с ним, делать такое серьезное предложение. Мало того, вслед за этим &lt;strong&gt;Собственник &lt;/strong&gt;передал &lt;strong&gt;Бывшему ИТ директору &lt;/strong&gt;интересный и перспективный проект. &lt;strong&gt;Новый ИТ директор&lt;/strong&gt; решает оказать активное воздействие на &lt;strong&gt;Собственника &lt;/strong&gt;с тем, чтобы тот изменил свои предложения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"ГД" , "Goals":"Избежать погружения в междепартаментские дрязги, добиться слаженного взаимодействия между подразделениями, укрепить свой авторитет"},
+  {"Role":"Директор ДМ", "Goals":"по возможности переложить на руководителя направления ДМ улаживание конфликта, ограничившись советами и пассивной поддержкой «стоя за спиной», не допустить демотивации руководителя направления ДМ, наладить взаимодействие с ДИТ, сохранить отношения с ДИТ"},
+  {"Role":"Директор ДИТ", "Goals":" не допустить наложения на ДИТ какой-либо фин.ответственности, регламентировать взаимодействие с ДИТ таким образом, чтобы фин.ответственность ДИТ за подобные прецеденты была невозможна, стимулировать ДМ учитывать риски в своих бюджетах, сохранить отношения с ДМ"}, 
+  {"Role":"Руководитель направления ДМ " , "Goals":" Избежать проблем с поиском доп бюджета, добиться компенсации снижения своего KPI, переложить ответственность на ДИТ за подобные прецеденты, сохранить отношения с Директором ДМ."}
+]        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {"Role":"Собственник" , "Goals":"Хочет сохранить обоих сотрудников, четко обозначив для них различия функциональных обязанностей"},
+  {"Role":"Бывший ИТ директор", "Goals":"Принять предложение Собственника, самостоятельно выстраивать  ИТ политику холдинга, не подчиняться Новому ИТ  директору."},
+  {"Role":"Новый ИТ директор", "Goals":"Воздействовать на Собственника, чтобы тот отозвал свое предложение Бывшему ИТ директору, а самого Бывшего ИТ директора оставил в подчинении ему в качестве заместителя."} 
+]        </t>
+  </si>
+  <si>
+    <t>Инфоцыгане</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {"Role":"Участник" , "Phrase":"Ясно, вы инфоцыгане - продаёте одних другим, а прибыль себе!"},
+  {"Role":"Организатор "}
+]          </t>
+  </si>
+  <si>
+    <t>Некоммерческое ИТ-сообщество в стороннем ИТ-чате анонсировало закрытое ИТ-мероприятие&lt;strong&gt;. Участник чата &lt;/strong&gt;- сотрудник компании-вендора откликнулся и подал заявку.&lt;strong&gt; Организаторы &lt;/strong&gt;ему отказали в бесплатном участии, руководствуясь Правилами участия, на основании принадлежности к вендору, и предложили платное участие. В ответ на это &lt;strong&gt;Участник &lt;/strong&gt;публично высказал &lt;strong&gt;Организатору:               &lt;/strong&gt;  &lt;strong&gt;   "Ясно, вы инфоцыгане - продаёте одних другим, а прибыль себе!"&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -280,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -616,182 +615,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E5DA1B-597A-4EF5-9C95-CE35359ADEBF}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="161.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" customWidth="1"/>
+    <col min="9" max="9" width="87.28515625" customWidth="1"/>
     <col min="10" max="10" width="158.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>41</v>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>30</v>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -799,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
